--- a/biology/Botanique/Hortus_sanitatis/Hortus_sanitatis.xlsx
+++ b/biology/Botanique/Hortus_sanitatis/Hortus_sanitatis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hortus sanitatis ou Ortus sanitatis est un herbier en latin, publié en juin 1491 à Mayence par Jacob Meydenbach. De même que l‘herbier en latin Herbarius moguntinus  (imprimé par Peter Schöffer, 1484) et l’herbier en allemand Le Jardin de santé (écrit par Johann Wonnecke von Kaub; imprimé par Peter Schöffer, 1485) le Hortus sanitatis appartient au Groupe des herbiers-incunables de Mayence.
 </t>
@@ -511,7 +523,9 @@
           <t>Auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auteur est inconnu. Parfois, Johann Wonnecke von Kaub est nommé à tort comme l'auteur.
 </t>
@@ -542,7 +556,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le texte est mis à imprimer sur deux colonnes.
 Il est divisé en cinq sections, dans lesquelles les substances utilisées pour la thérapie sont décrites :
@@ -579,9 +595,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Hortus sanitatis est une compilation d'après des encyclopédies médiévales bien connues, par exemple d'après le Liber pandectarum medicinae omnia medicine simplicia continens de Matthieu Silvaticus (XIVe siècle) et d'après le Speculum naturale de Vincent de Beauvais (XIIIe siècle)[1],[2],[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Hortus sanitatis est une compilation d'après des encyclopédies médiévales bien connues, par exemple d'après le Liber pandectarum medicinae omnia medicine simplicia continens de Matthieu Silvaticus (XIVe siècle) et d'après le Speculum naturale de Vincent de Beauvais (XIIIe siècle)
 </t>
         </is>
       </c>
@@ -612,26 +630,168 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Incunables (estampes du XVe siècle)
-Mayence. Jacob Meydenbach (23 juin) 1491[4]
+          <t>Incunables (estampes du XVe siècle)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mayence. Jacob Meydenbach (23 juin) 1491
 Strasbourg. Anonyme 1496
-Strasbourg. Anonyme 1497[5]
-Strasbourg. Anonyme 1500 (Johann Prüß l'Ancien ?)[6]
-Paris. Vérard 1500
-Post-incunable (XVIe siècle)
-Strasbourg après 1500[7]
+Strasbourg. Anonyme 1497
+Strasbourg. Anonyme 1500 (Johann Prüß l'Ancien ?)
+Paris. Vérard 1500</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hortus_sanitatis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hortus_sanitatis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Post-incunable (XVIe siècle)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Strasbourg après 1500
 Avec des gravures sur bois de l'atelier de Hans Grüninger.
 Venise (Bernhardinus Benalius et Johannes de Cereto de Tridino) 1511
 4e réimpression : Venise 1611 ; Réimpression (en deux volumes) Wurtzbourg 1978.
-Strasbourg 1517[8]
-Sections deux à cinq du Hortus sanitatis. Sans section un De herbis. Latin
-Strasbourg. Apiarius 1536[9]
-Sections deux à cinq du Hortus sanitatis. Sans section un De herbis. Allemand
-Strasbourg 1529. Hans Grüninger[10]
-Strasbourg 1529. Balthasar Beck. Jardin de la santé. au latin …[11]
-Strasbourg 1536. Mathias Apiarius. Jardin de la santé Zů Latin …[12]
-Francfort 1556. Hermann Gülfferich. Gart der Gesundtheyt zu Latin ...[13]
-Abbildungen (Auswahl). Ausgabe Mainz 1491[14]
+Strasbourg 1517</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hortus_sanitatis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hortus_sanitatis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sections deux à cinq du Hortus sanitatis. Sans section un De herbis. Latin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Strasbourg. Apiarius 1536</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hortus_sanitatis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hortus_sanitatis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sections deux à cinq du Hortus sanitatis. Sans section un De herbis. Allemand</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Strasbourg 1529. Hans Grüninger
+Strasbourg 1529. Balthasar Beck. Jardin de la santé. au latin …
+Strasbourg 1536. Mathias Apiarius. Jardin de la santé Zů Latin …
+Francfort 1556. Hermann Gülfferich. Gart der Gesundtheyt zu Latin ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hortus_sanitatis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hortus_sanitatis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Abbildungen (Auswahl). Ausgabe Mainz 1491[14]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Page-titre
 			Livre I, chapitre 43. ..... Arbor vel lignum vite paradisi
 			Livre I, chapitre 84. Butirum – Beurre
@@ -684,31 +844,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hortus_sanitatis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hortus_sanitatis</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hortus_sanitatis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hortus_sanitatis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Brigitte Baumann, Helmut Baumann: Die Mainzer Kräuterbuch-Inkunabeln – „Herbarius Moguntinus“ (1484) – „Gart der Gesundheit“ (1485) – „Hortus Sanitatis“ (1491). Wissenschaftshistorische Untersuchung der drei Prototypen botanisch-medizinischer Literatur des Spätmittelalters. Hiersemann, Stuttgart 2010,  (ISBN 978-3-7772-1020-9).
 Hermann Fischer: Mittelalterliche Pflanzenkunde. Verlag der Münchner Drucke, Munich, 1929, p. 94–104.
